--- a/data/dividends_info_20260123.xlsx
+++ b/data/dividends_info_20260123.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.768844293351759</v>
       </c>
       <c r="J2" t="n">
         <v>101</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.64500045776367</v>
+        <v>24.64999961853027</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3651856292485813</v>
+        <v>0.3651115675163898</v>
       </c>
       <c r="J3" t="n">
         <v>59</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>56.95000076293945</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="I4" t="n">
-        <v>1.141352047923046</v>
+        <v>1.15761350371544</v>
       </c>
       <c r="J4" t="n">
         <v>31</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.769999980926514</v>
+        <v>1.779999971389771</v>
       </c>
       <c r="I5" t="n">
-        <v>3.389830545003326</v>
+        <v>3.370786571033133</v>
       </c>
       <c r="J5" t="n">
         <v>17</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2489999979734421</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I6" t="n">
-        <v>24.09638573828402</v>
+        <v>23.0769239233796</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.032999992370605</v>
+        <v>9.017000198364258</v>
       </c>
       <c r="I7" t="n">
-        <v>2.546219419841261</v>
+        <v>2.550737439727721</v>
       </c>
       <c r="J7" t="n">
         <v>-4</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.685999870300293</v>
+        <v>5.705999851226807</v>
       </c>
       <c r="I8" t="n">
-        <v>2.124516404422996</v>
+        <v>2.117069806337756</v>
       </c>
       <c r="J8" t="n">
         <v>-4</v>
@@ -2294,117 +2294,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anima Holding S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EDILIZIACROBATICA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Friends S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Gismondi 1754 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Unipol S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>